--- a/DataRepo/example_data/small_dataset/small_obob_maven_6eaas_inf_glucose.xlsx
+++ b/DataRepo/example_data/small_dataset/small_obob_maven_6eaas_inf_glucose.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="29">
   <si>
     <t xml:space="preserve">label</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">C_Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dia-xz971</t>
   </si>
 </sst>
 </file>
@@ -225,10 +222,10 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC1" activeCellId="1" sqref="F:P AC1"/>
+      <selection pane="topLeft" activeCell="AC1" activeCellId="0" sqref="AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -652,10 +649,10 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="1" sqref="F:P Q1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -812,10 +809,10 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="1" sqref="F:P Q1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -969,13 +966,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="F:P"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -990,9 +990,7 @@
       <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -1006,9 +1004,6 @@
       </c>
       <c r="D2" s="0" t="n">
         <v>481379.86936945</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>6365385.55127311</v>
       </c>
     </row>
   </sheetData>
